--- a/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
@@ -489,139 +489,139 @@
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="B2" s="0"/>
+      <x:c r="C2" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>-15</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="0">
         <x:v>-19</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="n">
+      <x:c r="F2" s="0">
         <x:v>-6</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="n">
+      <x:c r="G2" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
+      <x:c r="H2" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="n">
+      <x:c r="I2" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="n">
+      <x:c r="J2" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="n">
+      <x:c r="K2" s="0">
         <x:v>-20</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="n">
+      <x:c r="L2" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="n">
+      <x:c r="M2" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="n">
+      <x:c r="N2" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="n">
+      <x:c r="O2" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="n">
+      <x:c r="P2" s="0">
         <x:v>-6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16">
-      <x:c r="A3" s="1" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="0"/>
+      <x:c r="C3" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>-23</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>-29</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="F3" s="0">
         <x:v>-8</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="n">
+      <x:c r="G3" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="n">
+      <x:c r="H3" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="n">
+      <x:c r="I3" s="0">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="n">
+      <x:c r="J3" s="0">
         <x:v>-16</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="n">
+      <x:c r="K3" s="0">
         <x:v>-30</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="n">
+      <x:c r="L3" s="0">
         <x:v>-16</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="n">
+      <x:c r="M3" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="n">
+      <x:c r="N3" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O3" s="0" t="n">
+      <x:c r="O3" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="P3" s="0" t="n">
+      <x:c r="P3" s="0">
         <x:v>-9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="A4" s="1"/>
+      <x:c r="B4" s="0"/>
+      <x:c r="C4" s="0">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>-30</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
+      <x:c r="G4" s="0">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="H4" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="n">
+      <x:c r="I4" s="0">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="n">
+      <x:c r="J4" s="0">
         <x:v>-22</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="n">
+      <x:c r="K4" s="0">
         <x:v>-40</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="n">
+      <x:c r="L4" s="0">
         <x:v>-21</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="n">
+      <x:c r="M4" s="0">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="n">
+      <x:c r="N4" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="O4" s="0" t="n">
+      <x:c r="O4" s="0">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="P4" s="0" t="n">
+      <x:c r="P4" s="0">
         <x:v>-12</x:v>
       </x:c>
     </x:row>
@@ -629,139 +629,139 @@
       <x:c r="A5" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="B5" s="0"/>
+      <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="0">
         <x:v>-14</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="n">
+      <x:c r="G5" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="n">
+      <x:c r="H5" s="0">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="n">
+      <x:c r="I5" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="n">
+      <x:c r="J5" s="0">
         <x:v>-27</x:v>
       </x:c>
-      <x:c r="K5" s="0" t="n">
+      <x:c r="K5" s="0">
         <x:v>-50</x:v>
       </x:c>
-      <x:c r="L5" s="0" t="n">
+      <x:c r="L5" s="0">
         <x:v>-27</x:v>
       </x:c>
-      <x:c r="M5" s="0" t="n">
+      <x:c r="M5" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="N5" s="0" t="n">
+      <x:c r="N5" s="0">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="O5" s="0" t="n">
+      <x:c r="O5" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="P5" s="0" t="n">
+      <x:c r="P5" s="0">
         <x:v>-14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16">
-      <x:c r="A6" s="1" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="A6" s="1"/>
+      <x:c r="B6" s="0"/>
+      <x:c r="C6" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>-45</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>-58</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="n">
+      <x:c r="F6" s="0">
         <x:v>-17</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="n">
+      <x:c r="G6" s="0">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="n">
+      <x:c r="H6" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="n">
+      <x:c r="I6" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J6" s="0" t="n">
+      <x:c r="J6" s="0">
         <x:v>-33</x:v>
       </x:c>
-      <x:c r="K6" s="0" t="n">
+      <x:c r="K6" s="0">
         <x:v>-60</x:v>
       </x:c>
-      <x:c r="L6" s="0" t="n">
+      <x:c r="L6" s="0">
         <x:v>-32</x:v>
       </x:c>
-      <x:c r="M6" s="0" t="n">
+      <x:c r="M6" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="N6" s="0" t="n">
+      <x:c r="N6" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="O6" s="0" t="n">
+      <x:c r="O6" s="0">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="P6" s="0" t="n">
+      <x:c r="P6" s="0">
         <x:v>-17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16">
-      <x:c r="A7" s="1" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="A7" s="1"/>
+      <x:c r="B7" s="0"/>
+      <x:c r="C7" s="0">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>-53</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>-67</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="n">
+      <x:c r="F7" s="0">
         <x:v>-20</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="n">
+      <x:c r="G7" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="n">
+      <x:c r="H7" s="0">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="n">
+      <x:c r="I7" s="0">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="J7" s="0" t="n">
+      <x:c r="J7" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="K7" s="0" t="n">
+      <x:c r="K7" s="0">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="L7" s="0" t="n">
+      <x:c r="L7" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="M7" s="0" t="n">
+      <x:c r="M7" s="0">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N7" s="0" t="n">
+      <x:c r="N7" s="0">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="O7" s="0" t="n">
+      <x:c r="O7" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P7" s="0" t="n">
+      <x:c r="P7" s="0">
         <x:v>-20</x:v>
       </x:c>
     </x:row>
@@ -769,139 +769,139 @@
       <x:c r="A8" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="B8" s="0"/>
+      <x:c r="C8" s="0">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="0">
         <x:v>-61</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>-77</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="n">
+      <x:c r="F8" s="0">
         <x:v>-22</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="n">
+      <x:c r="G8" s="0">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="n">
+      <x:c r="H8" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="n">
+      <x:c r="I8" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="J8" s="0" t="n">
+      <x:c r="J8" s="0">
         <x:v>-44</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="n">
+      <x:c r="K8" s="0">
         <x:v>-80</x:v>
       </x:c>
-      <x:c r="L8" s="0" t="n">
+      <x:c r="L8" s="0">
         <x:v>-43</x:v>
       </x:c>
-      <x:c r="M8" s="0" t="n">
+      <x:c r="M8" s="0">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="N8" s="0" t="n">
+      <x:c r="N8" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="O8" s="0" t="n">
+      <x:c r="O8" s="0">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="P8" s="0" t="n">
+      <x:c r="P8" s="0">
         <x:v>-23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16">
-      <x:c r="A9" s="1" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="A9" s="1"/>
+      <x:c r="B9" s="0"/>
+      <x:c r="C9" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="0">
         <x:v>-68</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="0">
         <x:v>-86</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="n">
+      <x:c r="F9" s="0">
         <x:v>-25</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="n">
+      <x:c r="G9" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="0">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="n">
+      <x:c r="I9" s="0">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="J9" s="0" t="n">
+      <x:c r="J9" s="0">
         <x:v>-49</x:v>
       </x:c>
-      <x:c r="K9" s="0" t="n">
+      <x:c r="K9" s="0">
         <x:v>-90</x:v>
       </x:c>
-      <x:c r="L9" s="0" t="n">
+      <x:c r="L9" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="M9" s="0" t="n">
+      <x:c r="M9" s="0">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="N9" s="0" t="n">
+      <x:c r="N9" s="0">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="O9" s="0" t="n">
+      <x:c r="O9" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="P9" s="0" t="n">
+      <x:c r="P9" s="0">
         <x:v>-26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:16">
-      <x:c r="A10" s="1" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="A10" s="1"/>
+      <x:c r="B10" s="0"/>
+      <x:c r="C10" s="0">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="0">
         <x:v>-76</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
+      <x:c r="E10" s="0">
         <x:v>-96</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="n">
+      <x:c r="F10" s="0">
         <x:v>-28</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="n">
+      <x:c r="G10" s="0">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="n">
+      <x:c r="H10" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="n">
+      <x:c r="I10" s="0">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="J10" s="0" t="n">
+      <x:c r="J10" s="0">
         <x:v>-54</x:v>
       </x:c>
-      <x:c r="K10" s="0" t="n">
+      <x:c r="K10" s="0">
         <x:v>-100</x:v>
       </x:c>
-      <x:c r="L10" s="0" t="n">
+      <x:c r="L10" s="0">
         <x:v>-54</x:v>
       </x:c>
-      <x:c r="M10" s="0" t="n">
+      <x:c r="M10" s="0">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="N10" s="0" t="n">
+      <x:c r="N10" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="O10" s="0" t="n">
+      <x:c r="O10" s="0">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="P10" s="0" t="n">
+      <x:c r="P10" s="0">
         <x:v>-29</x:v>
       </x:c>
     </x:row>
@@ -909,139 +909,139 @@
       <x:c r="A11" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="B11" s="0"/>
+      <x:c r="C11" s="0">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="0">
         <x:v>-83</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="n">
+      <x:c r="E11" s="0">
         <x:v>-105</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="n">
+      <x:c r="F11" s="0">
         <x:v>-31</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="n">
+      <x:c r="G11" s="0">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="n">
+      <x:c r="H11" s="0">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="I11" s="0" t="n">
+      <x:c r="I11" s="0">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="J11" s="0" t="n">
+      <x:c r="J11" s="0">
         <x:v>-60</x:v>
       </x:c>
-      <x:c r="K11" s="0" t="n">
+      <x:c r="K11" s="0">
         <x:v>-110</x:v>
       </x:c>
-      <x:c r="L11" s="0" t="n">
+      <x:c r="L11" s="0">
         <x:v>-59</x:v>
       </x:c>
-      <x:c r="M11" s="0" t="n">
+      <x:c r="M11" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="N11" s="0" t="n">
+      <x:c r="N11" s="0">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="O11" s="0" t="n">
+      <x:c r="O11" s="0">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="P11" s="0" t="n">
+      <x:c r="P11" s="0">
         <x:v>-32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:16">
-      <x:c r="A12" s="1" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="A12" s="1"/>
+      <x:c r="B12" s="0"/>
+      <x:c r="C12" s="0">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="0">
         <x:v>-91</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="n">
+      <x:c r="E12" s="0">
         <x:v>-115</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="n">
+      <x:c r="F12" s="0">
         <x:v>-34</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="n">
+      <x:c r="G12" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="H12" s="0" t="n">
+      <x:c r="H12" s="0">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="I12" s="0" t="n">
+      <x:c r="I12" s="0">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="J12" s="0" t="n">
+      <x:c r="J12" s="0">
         <x:v>-65</x:v>
       </x:c>
-      <x:c r="K12" s="0" t="n">
+      <x:c r="K12" s="0">
         <x:v>-120</x:v>
       </x:c>
-      <x:c r="L12" s="0" t="n">
+      <x:c r="L12" s="0">
         <x:v>-64</x:v>
       </x:c>
-      <x:c r="M12" s="0" t="n">
+      <x:c r="M12" s="0">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="N12" s="0" t="n">
+      <x:c r="N12" s="0">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="O12" s="0" t="n">
+      <x:c r="O12" s="0">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P12" s="0" t="n">
+      <x:c r="P12" s="0">
         <x:v>-35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:16">
-      <x:c r="A13" s="1" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="A13" s="1"/>
+      <x:c r="B13" s="0"/>
+      <x:c r="C13" s="0">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="0">
         <x:v>-98</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="n">
+      <x:c r="E13" s="0">
         <x:v>-125</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="n">
+      <x:c r="F13" s="0">
         <x:v>-36</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="n">
+      <x:c r="G13" s="0">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="H13" s="0" t="n">
+      <x:c r="H13" s="0">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="I13" s="0" t="n">
+      <x:c r="I13" s="0">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="J13" s="0" t="n">
+      <x:c r="J13" s="0">
         <x:v>-71</x:v>
       </x:c>
-      <x:c r="K13" s="0" t="n">
+      <x:c r="K13" s="0">
         <x:v>-130</x:v>
       </x:c>
-      <x:c r="L13" s="0" t="n">
+      <x:c r="L13" s="0">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="M13" s="0" t="n">
+      <x:c r="M13" s="0">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="N13" s="0" t="n">
+      <x:c r="N13" s="0">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="O13" s="0" t="n">
+      <x:c r="O13" s="0">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="P13" s="0" t="n">
+      <x:c r="P13" s="0">
         <x:v>-37</x:v>
       </x:c>
     </x:row>
@@ -1049,139 +1049,139 @@
       <x:c r="A14" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="B14" s="0"/>
+      <x:c r="C14" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="0">
         <x:v>-106</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="n">
+      <x:c r="E14" s="0">
         <x:v>-134</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="n">
+      <x:c r="F14" s="0">
         <x:v>-39</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="n">
+      <x:c r="G14" s="0">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="H14" s="0" t="n">
+      <x:c r="H14" s="0">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="I14" s="0" t="n">
+      <x:c r="I14" s="0">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="J14" s="0" t="n">
+      <x:c r="J14" s="0">
         <x:v>-76</x:v>
       </x:c>
-      <x:c r="K14" s="0" t="n">
+      <x:c r="K14" s="0">
         <x:v>-140</x:v>
       </x:c>
-      <x:c r="L14" s="0" t="n">
+      <x:c r="L14" s="0">
         <x:v>-75</x:v>
       </x:c>
-      <x:c r="M14" s="0" t="n">
+      <x:c r="M14" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="N14" s="0" t="n">
+      <x:c r="N14" s="0">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="O14" s="0" t="n">
+      <x:c r="O14" s="0">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="P14" s="0" t="n">
+      <x:c r="P14" s="0">
         <x:v>-40</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:16">
-      <x:c r="A15" s="1" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="A15" s="1"/>
+      <x:c r="B15" s="0"/>
+      <x:c r="C15" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="0">
         <x:v>-114</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="n">
+      <x:c r="E15" s="0">
         <x:v>-144</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="n">
+      <x:c r="F15" s="0">
         <x:v>-42</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="n">
+      <x:c r="G15" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="n">
+      <x:c r="H15" s="0">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="I15" s="0" t="n">
+      <x:c r="I15" s="0">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="J15" s="0" t="n">
+      <x:c r="J15" s="0">
         <x:v>-82</x:v>
       </x:c>
-      <x:c r="K15" s="0" t="n">
+      <x:c r="K15" s="0">
         <x:v>-150</x:v>
       </x:c>
-      <x:c r="L15" s="0" t="n">
+      <x:c r="L15" s="0">
         <x:v>-80</x:v>
       </x:c>
-      <x:c r="M15" s="0" t="n">
+      <x:c r="M15" s="0">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="N15" s="0" t="n">
+      <x:c r="N15" s="0">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="O15" s="0" t="n">
+      <x:c r="O15" s="0">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="P15" s="0" t="n">
+      <x:c r="P15" s="0">
         <x:v>-43</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:16">
-      <x:c r="A16" s="1" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="A16" s="1"/>
+      <x:c r="B16" s="0"/>
+      <x:c r="C16" s="0">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="0">
         <x:v>-121</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="n">
+      <x:c r="E16" s="0">
         <x:v>-153</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="n">
+      <x:c r="F16" s="0">
         <x:v>-45</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="n">
+      <x:c r="G16" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="H16" s="0" t="n">
+      <x:c r="H16" s="0">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="I16" s="0" t="n">
+      <x:c r="I16" s="0">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="J16" s="0" t="n">
+      <x:c r="J16" s="0">
         <x:v>-87</x:v>
       </x:c>
-      <x:c r="K16" s="0" t="n">
+      <x:c r="K16" s="0">
         <x:v>-160</x:v>
       </x:c>
-      <x:c r="L16" s="0" t="n">
+      <x:c r="L16" s="0">
         <x:v>-86</x:v>
       </x:c>
-      <x:c r="M16" s="0" t="n">
+      <x:c r="M16" s="0">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="N16" s="0" t="n">
+      <x:c r="N16" s="0">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="O16" s="0" t="n">
+      <x:c r="O16" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="P16" s="0" t="n">
+      <x:c r="P16" s="0">
         <x:v>-46</x:v>
       </x:c>
     </x:row>
@@ -1189,139 +1189,139 @@
       <x:c r="A17" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="B17" s="0"/>
+      <x:c r="C17" s="0">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="0">
         <x:v>-129</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="n">
+      <x:c r="E17" s="0">
         <x:v>-163</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="n">
+      <x:c r="F17" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="n">
+      <x:c r="G17" s="0">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="H17" s="0" t="n">
+      <x:c r="H17" s="0">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="I17" s="0" t="n">
+      <x:c r="I17" s="0">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="J17" s="0" t="n">
+      <x:c r="J17" s="0">
         <x:v>-92</x:v>
       </x:c>
-      <x:c r="K17" s="0" t="n">
+      <x:c r="K17" s="0">
         <x:v>-170</x:v>
       </x:c>
-      <x:c r="L17" s="0" t="n">
+      <x:c r="L17" s="0">
         <x:v>-91</x:v>
       </x:c>
-      <x:c r="M17" s="0" t="n">
+      <x:c r="M17" s="0">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="N17" s="0" t="n">
+      <x:c r="N17" s="0">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="O17" s="0" t="n">
+      <x:c r="O17" s="0">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="P17" s="0" t="n">
+      <x:c r="P17" s="0">
         <x:v>-49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:16">
-      <x:c r="A18" s="1" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="n">
+      <x:c r="A18" s="1"/>
+      <x:c r="B18" s="0"/>
+      <x:c r="C18" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="n">
+      <x:c r="D18" s="0">
         <x:v>-136</x:v>
       </x:c>
-      <x:c r="E18" s="0" t="n">
+      <x:c r="E18" s="0">
         <x:v>-173</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="n">
+      <x:c r="F18" s="0">
         <x:v>-50</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="n">
+      <x:c r="G18" s="0">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="H18" s="0" t="n">
+      <x:c r="H18" s="0">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="I18" s="0" t="n">
+      <x:c r="I18" s="0">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="J18" s="0" t="n">
+      <x:c r="J18" s="0">
         <x:v>-98</x:v>
       </x:c>
-      <x:c r="K18" s="0" t="n">
+      <x:c r="K18" s="0">
         <x:v>-180</x:v>
       </x:c>
-      <x:c r="L18" s="0" t="n">
+      <x:c r="L18" s="0">
         <x:v>-97</x:v>
       </x:c>
-      <x:c r="M18" s="0" t="n">
+      <x:c r="M18" s="0">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="N18" s="0" t="n">
+      <x:c r="N18" s="0">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="O18" s="0" t="n">
+      <x:c r="O18" s="0">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="P18" s="0" t="n">
+      <x:c r="P18" s="0">
         <x:v>-52</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:16">
-      <x:c r="A19" s="1" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="n">
+      <x:c r="A19" s="1"/>
+      <x:c r="B19" s="0"/>
+      <x:c r="C19" s="0">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="n">
+      <x:c r="D19" s="0">
         <x:v>-144</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="n">
+      <x:c r="E19" s="0">
         <x:v>-182</x:v>
       </x:c>
-      <x:c r="F19" s="0" t="n">
+      <x:c r="F19" s="0">
         <x:v>-53</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="n">
+      <x:c r="G19" s="0">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="H19" s="0" t="n">
+      <x:c r="H19" s="0">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="I19" s="0" t="n">
+      <x:c r="I19" s="0">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="J19" s="0" t="n">
+      <x:c r="J19" s="0">
         <x:v>-103</x:v>
       </x:c>
-      <x:c r="K19" s="0" t="n">
+      <x:c r="K19" s="0">
         <x:v>-190</x:v>
       </x:c>
-      <x:c r="L19" s="0" t="n">
+      <x:c r="L19" s="0">
         <x:v>-102</x:v>
       </x:c>
-      <x:c r="M19" s="0" t="n">
+      <x:c r="M19" s="0">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="N19" s="0" t="n">
+      <x:c r="N19" s="0">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="O19" s="0" t="n">
+      <x:c r="O19" s="0">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="P19" s="0" t="n">
+      <x:c r="P19" s="0">
         <x:v>-55</x:v>
       </x:c>
     </x:row>
@@ -1509,7 +1509,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16">
-      <x:c r="A1" s="1" t="s"/>
+      <x:c r="A1" s="1"/>
       <x:c r="C1" s="2">
         <x:v>42391</x:v>
       </x:c>
@@ -1557,139 +1557,139 @@
       <x:c r="A2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="B2" s="0"/>
+      <x:c r="C2" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>-15</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="0">
         <x:v>-19</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="n">
+      <x:c r="F2" s="0">
         <x:v>-6</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="n">
+      <x:c r="G2" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
+      <x:c r="H2" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="n">
+      <x:c r="I2" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="n">
+      <x:c r="J2" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="n">
+      <x:c r="K2" s="0">
         <x:v>-20</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="n">
+      <x:c r="L2" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="n">
+      <x:c r="M2" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="n">
+      <x:c r="N2" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="n">
+      <x:c r="O2" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="n">
+      <x:c r="P2" s="0">
         <x:v>-6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16">
-      <x:c r="A3" s="1" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="0"/>
+      <x:c r="C3" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>-23</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>-29</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="F3" s="0">
         <x:v>-8</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="n">
+      <x:c r="G3" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="n">
+      <x:c r="H3" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="n">
+      <x:c r="I3" s="0">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="n">
+      <x:c r="J3" s="0">
         <x:v>-16</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="n">
+      <x:c r="K3" s="0">
         <x:v>-30</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="n">
+      <x:c r="L3" s="0">
         <x:v>-16</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="n">
+      <x:c r="M3" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="n">
+      <x:c r="N3" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O3" s="0" t="n">
+      <x:c r="O3" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="P3" s="0" t="n">
+      <x:c r="P3" s="0">
         <x:v>-9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="A4" s="1"/>
+      <x:c r="B4" s="0"/>
+      <x:c r="C4" s="0">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>-30</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
+      <x:c r="G4" s="0">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="H4" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="n">
+      <x:c r="I4" s="0">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="n">
+      <x:c r="J4" s="0">
         <x:v>-22</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="n">
+      <x:c r="K4" s="0">
         <x:v>-40</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="n">
+      <x:c r="L4" s="0">
         <x:v>-21</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="n">
+      <x:c r="M4" s="0">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="n">
+      <x:c r="N4" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="O4" s="0" t="n">
+      <x:c r="O4" s="0">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="P4" s="0" t="n">
+      <x:c r="P4" s="0">
         <x:v>-12</x:v>
       </x:c>
     </x:row>
@@ -1697,139 +1697,139 @@
       <x:c r="A5" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="B5" s="0"/>
+      <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="0">
         <x:v>-14</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="n">
+      <x:c r="G5" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="n">
+      <x:c r="H5" s="0">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="n">
+      <x:c r="I5" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="n">
+      <x:c r="J5" s="0">
         <x:v>-27</x:v>
       </x:c>
-      <x:c r="K5" s="0" t="n">
+      <x:c r="K5" s="0">
         <x:v>-50</x:v>
       </x:c>
-      <x:c r="L5" s="0" t="n">
+      <x:c r="L5" s="0">
         <x:v>-27</x:v>
       </x:c>
-      <x:c r="M5" s="0" t="n">
+      <x:c r="M5" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="N5" s="0" t="n">
+      <x:c r="N5" s="0">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="O5" s="0" t="n">
+      <x:c r="O5" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="P5" s="0" t="n">
+      <x:c r="P5" s="0">
         <x:v>-14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16">
-      <x:c r="A6" s="1" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="A6" s="1"/>
+      <x:c r="B6" s="0"/>
+      <x:c r="C6" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>-45</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>-58</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="n">
+      <x:c r="F6" s="0">
         <x:v>-17</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="n">
+      <x:c r="G6" s="0">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="n">
+      <x:c r="H6" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="n">
+      <x:c r="I6" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J6" s="0" t="n">
+      <x:c r="J6" s="0">
         <x:v>-33</x:v>
       </x:c>
-      <x:c r="K6" s="0" t="n">
+      <x:c r="K6" s="0">
         <x:v>-60</x:v>
       </x:c>
-      <x:c r="L6" s="0" t="n">
+      <x:c r="L6" s="0">
         <x:v>-32</x:v>
       </x:c>
-      <x:c r="M6" s="0" t="n">
+      <x:c r="M6" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="N6" s="0" t="n">
+      <x:c r="N6" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="O6" s="0" t="n">
+      <x:c r="O6" s="0">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="P6" s="0" t="n">
+      <x:c r="P6" s="0">
         <x:v>-17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16">
-      <x:c r="A7" s="1" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="A7" s="1"/>
+      <x:c r="B7" s="0"/>
+      <x:c r="C7" s="0">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>-53</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>-67</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="n">
+      <x:c r="F7" s="0">
         <x:v>-20</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="n">
+      <x:c r="G7" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="n">
+      <x:c r="H7" s="0">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="n">
+      <x:c r="I7" s="0">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="J7" s="0" t="n">
+      <x:c r="J7" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="K7" s="0" t="n">
+      <x:c r="K7" s="0">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="L7" s="0" t="n">
+      <x:c r="L7" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="M7" s="0" t="n">
+      <x:c r="M7" s="0">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N7" s="0" t="n">
+      <x:c r="N7" s="0">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="O7" s="0" t="n">
+      <x:c r="O7" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P7" s="0" t="n">
+      <x:c r="P7" s="0">
         <x:v>-20</x:v>
       </x:c>
     </x:row>
@@ -1837,139 +1837,139 @@
       <x:c r="A8" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="B8" s="0"/>
+      <x:c r="C8" s="0">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="0">
         <x:v>-61</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>-77</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="n">
+      <x:c r="F8" s="0">
         <x:v>-22</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="n">
+      <x:c r="G8" s="0">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="n">
+      <x:c r="H8" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="n">
+      <x:c r="I8" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="J8" s="0" t="n">
+      <x:c r="J8" s="0">
         <x:v>-44</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="n">
+      <x:c r="K8" s="0">
         <x:v>-80</x:v>
       </x:c>
-      <x:c r="L8" s="0" t="n">
+      <x:c r="L8" s="0">
         <x:v>-43</x:v>
       </x:c>
-      <x:c r="M8" s="0" t="n">
+      <x:c r="M8" s="0">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="N8" s="0" t="n">
+      <x:c r="N8" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="O8" s="0" t="n">
+      <x:c r="O8" s="0">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="P8" s="0" t="n">
+      <x:c r="P8" s="0">
         <x:v>-23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16">
-      <x:c r="A9" s="1" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="A9" s="1"/>
+      <x:c r="B9" s="0"/>
+      <x:c r="C9" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="0">
         <x:v>-68</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="0">
         <x:v>-86</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="n">
+      <x:c r="F9" s="0">
         <x:v>-25</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="n">
+      <x:c r="G9" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="0">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="n">
+      <x:c r="I9" s="0">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="J9" s="0" t="n">
+      <x:c r="J9" s="0">
         <x:v>-49</x:v>
       </x:c>
-      <x:c r="K9" s="0" t="n">
+      <x:c r="K9" s="0">
         <x:v>-90</x:v>
       </x:c>
-      <x:c r="L9" s="0" t="n">
+      <x:c r="L9" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="M9" s="0" t="n">
+      <x:c r="M9" s="0">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="N9" s="0" t="n">
+      <x:c r="N9" s="0">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="O9" s="0" t="n">
+      <x:c r="O9" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="P9" s="0" t="n">
+      <x:c r="P9" s="0">
         <x:v>-26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:16">
-      <x:c r="A10" s="1" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="A10" s="1"/>
+      <x:c r="B10" s="0"/>
+      <x:c r="C10" s="0">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="0">
         <x:v>-76</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
+      <x:c r="E10" s="0">
         <x:v>-96</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="n">
+      <x:c r="F10" s="0">
         <x:v>-28</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="n">
+      <x:c r="G10" s="0">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="n">
+      <x:c r="H10" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="n">
+      <x:c r="I10" s="0">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="J10" s="0" t="n">
+      <x:c r="J10" s="0">
         <x:v>-54</x:v>
       </x:c>
-      <x:c r="K10" s="0" t="n">
+      <x:c r="K10" s="0">
         <x:v>-100</x:v>
       </x:c>
-      <x:c r="L10" s="0" t="n">
+      <x:c r="L10" s="0">
         <x:v>-54</x:v>
       </x:c>
-      <x:c r="M10" s="0" t="n">
+      <x:c r="M10" s="0">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="N10" s="0" t="n">
+      <x:c r="N10" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="O10" s="0" t="n">
+      <x:c r="O10" s="0">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="P10" s="0" t="n">
+      <x:c r="P10" s="0">
         <x:v>-29</x:v>
       </x:c>
     </x:row>
@@ -1977,139 +1977,139 @@
       <x:c r="A11" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="B11" s="0"/>
+      <x:c r="C11" s="0">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="0">
         <x:v>-83</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="n">
+      <x:c r="E11" s="0">
         <x:v>-105</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="n">
+      <x:c r="F11" s="0">
         <x:v>-31</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="n">
+      <x:c r="G11" s="0">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="n">
+      <x:c r="H11" s="0">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="I11" s="0" t="n">
+      <x:c r="I11" s="0">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="J11" s="0" t="n">
+      <x:c r="J11" s="0">
         <x:v>-60</x:v>
       </x:c>
-      <x:c r="K11" s="0" t="n">
+      <x:c r="K11" s="0">
         <x:v>-110</x:v>
       </x:c>
-      <x:c r="L11" s="0" t="n">
+      <x:c r="L11" s="0">
         <x:v>-59</x:v>
       </x:c>
-      <x:c r="M11" s="0" t="n">
+      <x:c r="M11" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="N11" s="0" t="n">
+      <x:c r="N11" s="0">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="O11" s="0" t="n">
+      <x:c r="O11" s="0">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="P11" s="0" t="n">
+      <x:c r="P11" s="0">
         <x:v>-32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:16">
-      <x:c r="A12" s="1" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="A12" s="1"/>
+      <x:c r="B12" s="0"/>
+      <x:c r="C12" s="0">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="0">
         <x:v>-91</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="n">
+      <x:c r="E12" s="0">
         <x:v>-115</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="n">
+      <x:c r="F12" s="0">
         <x:v>-34</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="n">
+      <x:c r="G12" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="H12" s="0" t="n">
+      <x:c r="H12" s="0">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="I12" s="0" t="n">
+      <x:c r="I12" s="0">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="J12" s="0" t="n">
+      <x:c r="J12" s="0">
         <x:v>-65</x:v>
       </x:c>
-      <x:c r="K12" s="0" t="n">
+      <x:c r="K12" s="0">
         <x:v>-120</x:v>
       </x:c>
-      <x:c r="L12" s="0" t="n">
+      <x:c r="L12" s="0">
         <x:v>-64</x:v>
       </x:c>
-      <x:c r="M12" s="0" t="n">
+      <x:c r="M12" s="0">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="N12" s="0" t="n">
+      <x:c r="N12" s="0">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="O12" s="0" t="n">
+      <x:c r="O12" s="0">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P12" s="0" t="n">
+      <x:c r="P12" s="0">
         <x:v>-35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:16">
-      <x:c r="A13" s="1" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="A13" s="1"/>
+      <x:c r="B13" s="0"/>
+      <x:c r="C13" s="0">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="0">
         <x:v>-98</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="n">
+      <x:c r="E13" s="0">
         <x:v>-125</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="n">
+      <x:c r="F13" s="0">
         <x:v>-36</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="n">
+      <x:c r="G13" s="0">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="H13" s="0" t="n">
+      <x:c r="H13" s="0">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="I13" s="0" t="n">
+      <x:c r="I13" s="0">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="J13" s="0" t="n">
+      <x:c r="J13" s="0">
         <x:v>-71</x:v>
       </x:c>
-      <x:c r="K13" s="0" t="n">
+      <x:c r="K13" s="0">
         <x:v>-130</x:v>
       </x:c>
-      <x:c r="L13" s="0" t="n">
+      <x:c r="L13" s="0">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="M13" s="0" t="n">
+      <x:c r="M13" s="0">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="N13" s="0" t="n">
+      <x:c r="N13" s="0">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="O13" s="0" t="n">
+      <x:c r="O13" s="0">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="P13" s="0" t="n">
+      <x:c r="P13" s="0">
         <x:v>-37</x:v>
       </x:c>
     </x:row>
@@ -2117,139 +2117,139 @@
       <x:c r="A14" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="B14" s="0"/>
+      <x:c r="C14" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="0">
         <x:v>-106</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="n">
+      <x:c r="E14" s="0">
         <x:v>-134</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="n">
+      <x:c r="F14" s="0">
         <x:v>-39</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="n">
+      <x:c r="G14" s="0">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="H14" s="0" t="n">
+      <x:c r="H14" s="0">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="I14" s="0" t="n">
+      <x:c r="I14" s="0">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="J14" s="0" t="n">
+      <x:c r="J14" s="0">
         <x:v>-76</x:v>
       </x:c>
-      <x:c r="K14" s="0" t="n">
+      <x:c r="K14" s="0">
         <x:v>-140</x:v>
       </x:c>
-      <x:c r="L14" s="0" t="n">
+      <x:c r="L14" s="0">
         <x:v>-75</x:v>
       </x:c>
-      <x:c r="M14" s="0" t="n">
+      <x:c r="M14" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="N14" s="0" t="n">
+      <x:c r="N14" s="0">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="O14" s="0" t="n">
+      <x:c r="O14" s="0">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="P14" s="0" t="n">
+      <x:c r="P14" s="0">
         <x:v>-40</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:16">
-      <x:c r="A15" s="1" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="A15" s="1"/>
+      <x:c r="B15" s="0"/>
+      <x:c r="C15" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="0">
         <x:v>-114</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="n">
+      <x:c r="E15" s="0">
         <x:v>-144</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="n">
+      <x:c r="F15" s="0">
         <x:v>-42</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="n">
+      <x:c r="G15" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="n">
+      <x:c r="H15" s="0">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="I15" s="0" t="n">
+      <x:c r="I15" s="0">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="J15" s="0" t="n">
+      <x:c r="J15" s="0">
         <x:v>-82</x:v>
       </x:c>
-      <x:c r="K15" s="0" t="n">
+      <x:c r="K15" s="0">
         <x:v>-150</x:v>
       </x:c>
-      <x:c r="L15" s="0" t="n">
+      <x:c r="L15" s="0">
         <x:v>-80</x:v>
       </x:c>
-      <x:c r="M15" s="0" t="n">
+      <x:c r="M15" s="0">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="N15" s="0" t="n">
+      <x:c r="N15" s="0">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="O15" s="0" t="n">
+      <x:c r="O15" s="0">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="P15" s="0" t="n">
+      <x:c r="P15" s="0">
         <x:v>-43</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:16">
-      <x:c r="A16" s="1" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="A16" s="1"/>
+      <x:c r="B16" s="0"/>
+      <x:c r="C16" s="0">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="0">
         <x:v>-121</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="n">
+      <x:c r="E16" s="0">
         <x:v>-153</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="n">
+      <x:c r="F16" s="0">
         <x:v>-45</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="n">
+      <x:c r="G16" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="H16" s="0" t="n">
+      <x:c r="H16" s="0">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="I16" s="0" t="n">
+      <x:c r="I16" s="0">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="J16" s="0" t="n">
+      <x:c r="J16" s="0">
         <x:v>-87</x:v>
       </x:c>
-      <x:c r="K16" s="0" t="n">
+      <x:c r="K16" s="0">
         <x:v>-160</x:v>
       </x:c>
-      <x:c r="L16" s="0" t="n">
+      <x:c r="L16" s="0">
         <x:v>-86</x:v>
       </x:c>
-      <x:c r="M16" s="0" t="n">
+      <x:c r="M16" s="0">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="N16" s="0" t="n">
+      <x:c r="N16" s="0">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="O16" s="0" t="n">
+      <x:c r="O16" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="P16" s="0" t="n">
+      <x:c r="P16" s="0">
         <x:v>-46</x:v>
       </x:c>
     </x:row>
@@ -2257,139 +2257,139 @@
       <x:c r="A17" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="B17" s="0"/>
+      <x:c r="C17" s="0">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="0">
         <x:v>-129</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="n">
+      <x:c r="E17" s="0">
         <x:v>-163</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="n">
+      <x:c r="F17" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="n">
+      <x:c r="G17" s="0">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="H17" s="0" t="n">
+      <x:c r="H17" s="0">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="I17" s="0" t="n">
+      <x:c r="I17" s="0">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="J17" s="0" t="n">
+      <x:c r="J17" s="0">
         <x:v>-92</x:v>
       </x:c>
-      <x:c r="K17" s="0" t="n">
+      <x:c r="K17" s="0">
         <x:v>-170</x:v>
       </x:c>
-      <x:c r="L17" s="0" t="n">
+      <x:c r="L17" s="0">
         <x:v>-91</x:v>
       </x:c>
-      <x:c r="M17" s="0" t="n">
+      <x:c r="M17" s="0">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="N17" s="0" t="n">
+      <x:c r="N17" s="0">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="O17" s="0" t="n">
+      <x:c r="O17" s="0">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="P17" s="0" t="n">
+      <x:c r="P17" s="0">
         <x:v>-49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:16">
-      <x:c r="A18" s="1" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="n">
+      <x:c r="A18" s="1"/>
+      <x:c r="B18" s="0"/>
+      <x:c r="C18" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="n">
+      <x:c r="D18" s="0">
         <x:v>-136</x:v>
       </x:c>
-      <x:c r="E18" s="0" t="n">
+      <x:c r="E18" s="0">
         <x:v>-173</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="n">
+      <x:c r="F18" s="0">
         <x:v>-50</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="n">
+      <x:c r="G18" s="0">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="H18" s="0" t="n">
+      <x:c r="H18" s="0">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="I18" s="0" t="n">
+      <x:c r="I18" s="0">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="J18" s="0" t="n">
+      <x:c r="J18" s="0">
         <x:v>-98</x:v>
       </x:c>
-      <x:c r="K18" s="0" t="n">
+      <x:c r="K18" s="0">
         <x:v>-180</x:v>
       </x:c>
-      <x:c r="L18" s="0" t="n">
+      <x:c r="L18" s="0">
         <x:v>-97</x:v>
       </x:c>
-      <x:c r="M18" s="0" t="n">
+      <x:c r="M18" s="0">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="N18" s="0" t="n">
+      <x:c r="N18" s="0">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="O18" s="0" t="n">
+      <x:c r="O18" s="0">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="P18" s="0" t="n">
+      <x:c r="P18" s="0">
         <x:v>-52</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:16">
-      <x:c r="A19" s="1" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="n">
+      <x:c r="A19" s="1"/>
+      <x:c r="B19" s="0"/>
+      <x:c r="C19" s="0">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="n">
+      <x:c r="D19" s="0">
         <x:v>-144</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="n">
+      <x:c r="E19" s="0">
         <x:v>-182</x:v>
       </x:c>
-      <x:c r="F19" s="0" t="n">
+      <x:c r="F19" s="0">
         <x:v>-53</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="n">
+      <x:c r="G19" s="0">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="H19" s="0" t="n">
+      <x:c r="H19" s="0">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="I19" s="0" t="n">
+      <x:c r="I19" s="0">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="J19" s="0" t="n">
+      <x:c r="J19" s="0">
         <x:v>-103</x:v>
       </x:c>
-      <x:c r="K19" s="0" t="n">
+      <x:c r="K19" s="0">
         <x:v>-190</x:v>
       </x:c>
-      <x:c r="L19" s="0" t="n">
+      <x:c r="L19" s="0">
         <x:v>-102</x:v>
       </x:c>
-      <x:c r="M19" s="0" t="n">
+      <x:c r="M19" s="0">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="N19" s="0" t="n">
+      <x:c r="N19" s="0">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="O19" s="0" t="n">
+      <x:c r="O19" s="0">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="P19" s="0" t="n">
+      <x:c r="P19" s="0">
         <x:v>-55</x:v>
       </x:c>
     </x:row>
@@ -2584,7 +2584,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16">
-      <x:c r="A1" s="1" t="s"/>
+      <x:c r="A1" s="1"/>
       <x:c r="C1" s="2">
         <x:v>42391</x:v>
       </x:c>
@@ -2632,139 +2632,139 @@
       <x:c r="A2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="B2" s="0"/>
+      <x:c r="C2" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>-15</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="0">
         <x:v>-19</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="n">
+      <x:c r="F2" s="0">
         <x:v>-6</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="n">
+      <x:c r="G2" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
+      <x:c r="H2" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="n">
+      <x:c r="I2" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="n">
+      <x:c r="J2" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="n">
+      <x:c r="K2" s="0">
         <x:v>-20</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="n">
+      <x:c r="L2" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="n">
+      <x:c r="M2" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="n">
+      <x:c r="N2" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="n">
+      <x:c r="O2" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="n">
+      <x:c r="P2" s="0">
         <x:v>-6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16">
-      <x:c r="A3" s="1" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="0"/>
+      <x:c r="C3" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>-23</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>-29</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="F3" s="0">
         <x:v>-8</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="n">
+      <x:c r="G3" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="n">
+      <x:c r="H3" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="n">
+      <x:c r="I3" s="0">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="n">
+      <x:c r="J3" s="0">
         <x:v>-16</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="n">
+      <x:c r="K3" s="0">
         <x:v>-30</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="n">
+      <x:c r="L3" s="0">
         <x:v>-16</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="n">
+      <x:c r="M3" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="n">
+      <x:c r="N3" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O3" s="0" t="n">
+      <x:c r="O3" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="P3" s="0" t="n">
+      <x:c r="P3" s="0">
         <x:v>-9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="A4" s="1"/>
+      <x:c r="B4" s="0"/>
+      <x:c r="C4" s="0">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>-30</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>-11</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
+      <x:c r="G4" s="0">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="H4" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="n">
+      <x:c r="I4" s="0">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="n">
+      <x:c r="J4" s="0">
         <x:v>-22</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="n">
+      <x:c r="K4" s="0">
         <x:v>-40</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="n">
+      <x:c r="L4" s="0">
         <x:v>-21</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="n">
+      <x:c r="M4" s="0">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="n">
+      <x:c r="N4" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="O4" s="0" t="n">
+      <x:c r="O4" s="0">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="P4" s="0" t="n">
+      <x:c r="P4" s="0">
         <x:v>-12</x:v>
       </x:c>
     </x:row>
@@ -2772,139 +2772,139 @@
       <x:c r="A5" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="B5" s="0"/>
+      <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="0">
         <x:v>-14</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="n">
+      <x:c r="G5" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="n">
+      <x:c r="H5" s="0">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="n">
+      <x:c r="I5" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="n">
+      <x:c r="J5" s="0">
         <x:v>-27</x:v>
       </x:c>
-      <x:c r="K5" s="0" t="n">
+      <x:c r="K5" s="0">
         <x:v>-50</x:v>
       </x:c>
-      <x:c r="L5" s="0" t="n">
+      <x:c r="L5" s="0">
         <x:v>-27</x:v>
       </x:c>
-      <x:c r="M5" s="0" t="n">
+      <x:c r="M5" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="N5" s="0" t="n">
+      <x:c r="N5" s="0">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="O5" s="0" t="n">
+      <x:c r="O5" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="P5" s="0" t="n">
+      <x:c r="P5" s="0">
         <x:v>-14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16">
-      <x:c r="A6" s="1" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="A6" s="1"/>
+      <x:c r="B6" s="0"/>
+      <x:c r="C6" s="0">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>-45</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>-58</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="n">
+      <x:c r="F6" s="0">
         <x:v>-17</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="n">
+      <x:c r="G6" s="0">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="n">
+      <x:c r="H6" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="n">
+      <x:c r="I6" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J6" s="0" t="n">
+      <x:c r="J6" s="0">
         <x:v>-33</x:v>
       </x:c>
-      <x:c r="K6" s="0" t="n">
+      <x:c r="K6" s="0">
         <x:v>-60</x:v>
       </x:c>
-      <x:c r="L6" s="0" t="n">
+      <x:c r="L6" s="0">
         <x:v>-32</x:v>
       </x:c>
-      <x:c r="M6" s="0" t="n">
+      <x:c r="M6" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="N6" s="0" t="n">
+      <x:c r="N6" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="O6" s="0" t="n">
+      <x:c r="O6" s="0">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="P6" s="0" t="n">
+      <x:c r="P6" s="0">
         <x:v>-17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16">
-      <x:c r="A7" s="1" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="A7" s="1"/>
+      <x:c r="B7" s="0"/>
+      <x:c r="C7" s="0">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>-53</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>-67</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="n">
+      <x:c r="F7" s="0">
         <x:v>-20</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="n">
+      <x:c r="G7" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="n">
+      <x:c r="H7" s="0">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="n">
+      <x:c r="I7" s="0">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="J7" s="0" t="n">
+      <x:c r="J7" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="K7" s="0" t="n">
+      <x:c r="K7" s="0">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="L7" s="0" t="n">
+      <x:c r="L7" s="0">
         <x:v>-38</x:v>
       </x:c>
-      <x:c r="M7" s="0" t="n">
+      <x:c r="M7" s="0">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N7" s="0" t="n">
+      <x:c r="N7" s="0">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="O7" s="0" t="n">
+      <x:c r="O7" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P7" s="0" t="n">
+      <x:c r="P7" s="0">
         <x:v>-20</x:v>
       </x:c>
     </x:row>
@@ -2912,139 +2912,139 @@
       <x:c r="A8" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="B8" s="0"/>
+      <x:c r="C8" s="0">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="0">
         <x:v>-61</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>-77</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="n">
+      <x:c r="F8" s="0">
         <x:v>-22</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="n">
+      <x:c r="G8" s="0">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="n">
+      <x:c r="H8" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="n">
+      <x:c r="I8" s="0">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="J8" s="0" t="n">
+      <x:c r="J8" s="0">
         <x:v>-44</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="n">
+      <x:c r="K8" s="0">
         <x:v>-80</x:v>
       </x:c>
-      <x:c r="L8" s="0" t="n">
+      <x:c r="L8" s="0">
         <x:v>-43</x:v>
       </x:c>
-      <x:c r="M8" s="0" t="n">
+      <x:c r="M8" s="0">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="N8" s="0" t="n">
+      <x:c r="N8" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="O8" s="0" t="n">
+      <x:c r="O8" s="0">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="P8" s="0" t="n">
+      <x:c r="P8" s="0">
         <x:v>-23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16">
-      <x:c r="A9" s="1" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="A9" s="1"/>
+      <x:c r="B9" s="0"/>
+      <x:c r="C9" s="0">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="0">
         <x:v>-68</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="0">
         <x:v>-86</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="n">
+      <x:c r="F9" s="0">
         <x:v>-25</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="n">
+      <x:c r="G9" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="0">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="n">
+      <x:c r="I9" s="0">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="J9" s="0" t="n">
+      <x:c r="J9" s="0">
         <x:v>-49</x:v>
       </x:c>
-      <x:c r="K9" s="0" t="n">
+      <x:c r="K9" s="0">
         <x:v>-90</x:v>
       </x:c>
-      <x:c r="L9" s="0" t="n">
+      <x:c r="L9" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="M9" s="0" t="n">
+      <x:c r="M9" s="0">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="N9" s="0" t="n">
+      <x:c r="N9" s="0">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="O9" s="0" t="n">
+      <x:c r="O9" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="P9" s="0" t="n">
+      <x:c r="P9" s="0">
         <x:v>-26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:16">
-      <x:c r="A10" s="1" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="A10" s="1"/>
+      <x:c r="B10" s="0"/>
+      <x:c r="C10" s="0">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="0">
         <x:v>-76</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
+      <x:c r="E10" s="0">
         <x:v>-96</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="n">
+      <x:c r="F10" s="0">
         <x:v>-28</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="n">
+      <x:c r="G10" s="0">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="n">
+      <x:c r="H10" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="n">
+      <x:c r="I10" s="0">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="J10" s="0" t="n">
+      <x:c r="J10" s="0">
         <x:v>-54</x:v>
       </x:c>
-      <x:c r="K10" s="0" t="n">
+      <x:c r="K10" s="0">
         <x:v>-100</x:v>
       </x:c>
-      <x:c r="L10" s="0" t="n">
+      <x:c r="L10" s="0">
         <x:v>-54</x:v>
       </x:c>
-      <x:c r="M10" s="0" t="n">
+      <x:c r="M10" s="0">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="N10" s="0" t="n">
+      <x:c r="N10" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="O10" s="0" t="n">
+      <x:c r="O10" s="0">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="P10" s="0" t="n">
+      <x:c r="P10" s="0">
         <x:v>-29</x:v>
       </x:c>
     </x:row>
@@ -3052,139 +3052,139 @@
       <x:c r="A11" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="B11" s="0"/>
+      <x:c r="C11" s="0">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="0">
         <x:v>-83</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="n">
+      <x:c r="E11" s="0">
         <x:v>-105</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="n">
+      <x:c r="F11" s="0">
         <x:v>-31</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="n">
+      <x:c r="G11" s="0">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="n">
+      <x:c r="H11" s="0">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="I11" s="0" t="n">
+      <x:c r="I11" s="0">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="J11" s="0" t="n">
+      <x:c r="J11" s="0">
         <x:v>-60</x:v>
       </x:c>
-      <x:c r="K11" s="0" t="n">
+      <x:c r="K11" s="0">
         <x:v>-110</x:v>
       </x:c>
-      <x:c r="L11" s="0" t="n">
+      <x:c r="L11" s="0">
         <x:v>-59</x:v>
       </x:c>
-      <x:c r="M11" s="0" t="n">
+      <x:c r="M11" s="0">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="N11" s="0" t="n">
+      <x:c r="N11" s="0">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="O11" s="0" t="n">
+      <x:c r="O11" s="0">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="P11" s="0" t="n">
+      <x:c r="P11" s="0">
         <x:v>-32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:16">
-      <x:c r="A12" s="1" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="A12" s="1"/>
+      <x:c r="B12" s="0"/>
+      <x:c r="C12" s="0">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="0">
         <x:v>-91</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="n">
+      <x:c r="E12" s="0">
         <x:v>-115</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="n">
+      <x:c r="F12" s="0">
         <x:v>-34</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="n">
+      <x:c r="G12" s="0">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="H12" s="0" t="n">
+      <x:c r="H12" s="0">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="I12" s="0" t="n">
+      <x:c r="I12" s="0">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="J12" s="0" t="n">
+      <x:c r="J12" s="0">
         <x:v>-65</x:v>
       </x:c>
-      <x:c r="K12" s="0" t="n">
+      <x:c r="K12" s="0">
         <x:v>-120</x:v>
       </x:c>
-      <x:c r="L12" s="0" t="n">
+      <x:c r="L12" s="0">
         <x:v>-64</x:v>
       </x:c>
-      <x:c r="M12" s="0" t="n">
+      <x:c r="M12" s="0">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="N12" s="0" t="n">
+      <x:c r="N12" s="0">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="O12" s="0" t="n">
+      <x:c r="O12" s="0">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P12" s="0" t="n">
+      <x:c r="P12" s="0">
         <x:v>-35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:16">
-      <x:c r="A13" s="1" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="A13" s="1"/>
+      <x:c r="B13" s="0"/>
+      <x:c r="C13" s="0">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="0">
         <x:v>-98</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="n">
+      <x:c r="E13" s="0">
         <x:v>-125</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="n">
+      <x:c r="F13" s="0">
         <x:v>-36</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="n">
+      <x:c r="G13" s="0">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="H13" s="0" t="n">
+      <x:c r="H13" s="0">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="I13" s="0" t="n">
+      <x:c r="I13" s="0">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="J13" s="0" t="n">
+      <x:c r="J13" s="0">
         <x:v>-71</x:v>
       </x:c>
-      <x:c r="K13" s="0" t="n">
+      <x:c r="K13" s="0">
         <x:v>-130</x:v>
       </x:c>
-      <x:c r="L13" s="0" t="n">
+      <x:c r="L13" s="0">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="M13" s="0" t="n">
+      <x:c r="M13" s="0">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="N13" s="0" t="n">
+      <x:c r="N13" s="0">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="O13" s="0" t="n">
+      <x:c r="O13" s="0">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="P13" s="0" t="n">
+      <x:c r="P13" s="0">
         <x:v>-37</x:v>
       </x:c>
     </x:row>
@@ -3192,139 +3192,139 @@
       <x:c r="A14" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="B14" s="0"/>
+      <x:c r="C14" s="0">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="0">
         <x:v>-106</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="n">
+      <x:c r="E14" s="0">
         <x:v>-134</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="n">
+      <x:c r="F14" s="0">
         <x:v>-39</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="n">
+      <x:c r="G14" s="0">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="H14" s="0" t="n">
+      <x:c r="H14" s="0">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="I14" s="0" t="n">
+      <x:c r="I14" s="0">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="J14" s="0" t="n">
+      <x:c r="J14" s="0">
         <x:v>-76</x:v>
       </x:c>
-      <x:c r="K14" s="0" t="n">
+      <x:c r="K14" s="0">
         <x:v>-140</x:v>
       </x:c>
-      <x:c r="L14" s="0" t="n">
+      <x:c r="L14" s="0">
         <x:v>-75</x:v>
       </x:c>
-      <x:c r="M14" s="0" t="n">
+      <x:c r="M14" s="0">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="N14" s="0" t="n">
+      <x:c r="N14" s="0">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="O14" s="0" t="n">
+      <x:c r="O14" s="0">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="P14" s="0" t="n">
+      <x:c r="P14" s="0">
         <x:v>-40</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:16">
-      <x:c r="A15" s="1" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="A15" s="1"/>
+      <x:c r="B15" s="0"/>
+      <x:c r="C15" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="0">
         <x:v>-114</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="n">
+      <x:c r="E15" s="0">
         <x:v>-144</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="n">
+      <x:c r="F15" s="0">
         <x:v>-42</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="n">
+      <x:c r="G15" s="0">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="n">
+      <x:c r="H15" s="0">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="I15" s="0" t="n">
+      <x:c r="I15" s="0">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="J15" s="0" t="n">
+      <x:c r="J15" s="0">
         <x:v>-82</x:v>
       </x:c>
-      <x:c r="K15" s="0" t="n">
+      <x:c r="K15" s="0">
         <x:v>-150</x:v>
       </x:c>
-      <x:c r="L15" s="0" t="n">
+      <x:c r="L15" s="0">
         <x:v>-80</x:v>
       </x:c>
-      <x:c r="M15" s="0" t="n">
+      <x:c r="M15" s="0">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="N15" s="0" t="n">
+      <x:c r="N15" s="0">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="O15" s="0" t="n">
+      <x:c r="O15" s="0">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="P15" s="0" t="n">
+      <x:c r="P15" s="0">
         <x:v>-43</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:16">
-      <x:c r="A16" s="1" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="A16" s="1"/>
+      <x:c r="B16" s="0"/>
+      <x:c r="C16" s="0">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="0">
         <x:v>-121</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="n">
+      <x:c r="E16" s="0">
         <x:v>-153</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="n">
+      <x:c r="F16" s="0">
         <x:v>-45</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="n">
+      <x:c r="G16" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="H16" s="0" t="n">
+      <x:c r="H16" s="0">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="I16" s="0" t="n">
+      <x:c r="I16" s="0">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="J16" s="0" t="n">
+      <x:c r="J16" s="0">
         <x:v>-87</x:v>
       </x:c>
-      <x:c r="K16" s="0" t="n">
+      <x:c r="K16" s="0">
         <x:v>-160</x:v>
       </x:c>
-      <x:c r="L16" s="0" t="n">
+      <x:c r="L16" s="0">
         <x:v>-86</x:v>
       </x:c>
-      <x:c r="M16" s="0" t="n">
+      <x:c r="M16" s="0">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="N16" s="0" t="n">
+      <x:c r="N16" s="0">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="O16" s="0" t="n">
+      <x:c r="O16" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="P16" s="0" t="n">
+      <x:c r="P16" s="0">
         <x:v>-46</x:v>
       </x:c>
     </x:row>
@@ -3332,139 +3332,139 @@
       <x:c r="A17" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="B17" s="0"/>
+      <x:c r="C17" s="0">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="0">
         <x:v>-129</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="n">
+      <x:c r="E17" s="0">
         <x:v>-163</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="n">
+      <x:c r="F17" s="0">
         <x:v>-48</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="n">
+      <x:c r="G17" s="0">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="H17" s="0" t="n">
+      <x:c r="H17" s="0">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="I17" s="0" t="n">
+      <x:c r="I17" s="0">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="J17" s="0" t="n">
+      <x:c r="J17" s="0">
         <x:v>-92</x:v>
       </x:c>
-      <x:c r="K17" s="0" t="n">
+      <x:c r="K17" s="0">
         <x:v>-170</x:v>
       </x:c>
-      <x:c r="L17" s="0" t="n">
+      <x:c r="L17" s="0">
         <x:v>-91</x:v>
       </x:c>
-      <x:c r="M17" s="0" t="n">
+      <x:c r="M17" s="0">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="N17" s="0" t="n">
+      <x:c r="N17" s="0">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="O17" s="0" t="n">
+      <x:c r="O17" s="0">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="P17" s="0" t="n">
+      <x:c r="P17" s="0">
         <x:v>-49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:16">
-      <x:c r="A18" s="1" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="n">
+      <x:c r="A18" s="1"/>
+      <x:c r="B18" s="0"/>
+      <x:c r="C18" s="0">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="n">
+      <x:c r="D18" s="0">
         <x:v>-136</x:v>
       </x:c>
-      <x:c r="E18" s="0" t="n">
+      <x:c r="E18" s="0">
         <x:v>-173</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="n">
+      <x:c r="F18" s="0">
         <x:v>-50</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="n">
+      <x:c r="G18" s="0">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="H18" s="0" t="n">
+      <x:c r="H18" s="0">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="I18" s="0" t="n">
+      <x:c r="I18" s="0">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="J18" s="0" t="n">
+      <x:c r="J18" s="0">
         <x:v>-98</x:v>
       </x:c>
-      <x:c r="K18" s="0" t="n">
+      <x:c r="K18" s="0">
         <x:v>-180</x:v>
       </x:c>
-      <x:c r="L18" s="0" t="n">
+      <x:c r="L18" s="0">
         <x:v>-97</x:v>
       </x:c>
-      <x:c r="M18" s="0" t="n">
+      <x:c r="M18" s="0">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="N18" s="0" t="n">
+      <x:c r="N18" s="0">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="O18" s="0" t="n">
+      <x:c r="O18" s="0">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="P18" s="0" t="n">
+      <x:c r="P18" s="0">
         <x:v>-52</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:16">
-      <x:c r="A19" s="1" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="n">
+      <x:c r="A19" s="1"/>
+      <x:c r="B19" s="0"/>
+      <x:c r="C19" s="0">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="n">
+      <x:c r="D19" s="0">
         <x:v>-144</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="n">
+      <x:c r="E19" s="0">
         <x:v>-182</x:v>
       </x:c>
-      <x:c r="F19" s="0" t="n">
+      <x:c r="F19" s="0">
         <x:v>-53</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="n">
+      <x:c r="G19" s="0">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="H19" s="0" t="n">
+      <x:c r="H19" s="0">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="I19" s="0" t="n">
+      <x:c r="I19" s="0">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="J19" s="0" t="n">
+      <x:c r="J19" s="0">
         <x:v>-103</x:v>
       </x:c>
-      <x:c r="K19" s="0" t="n">
+      <x:c r="K19" s="0">
         <x:v>-190</x:v>
       </x:c>
-      <x:c r="L19" s="0" t="n">
+      <x:c r="L19" s="0">
         <x:v>-102</x:v>
       </x:c>
-      <x:c r="M19" s="0" t="n">
+      <x:c r="M19" s="0">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="N19" s="0" t="n">
+      <x:c r="N19" s="0">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="O19" s="0" t="n">
+      <x:c r="O19" s="0">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="P19" s="0" t="n">
+      <x:c r="P19" s="0">
         <x:v>-55</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1342,7 +1342,7 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1366,7 +1366,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5687C2"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1390,7 +1390,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" manualMax="100" manualMin="-80" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup manualMax="100" manualMin="-80" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1414,7 +1414,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1439,7 +1439,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="2" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="2" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FFFF0000"/>
@@ -1463,7 +1463,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1494,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2417,7 +2417,7 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2441,7 +2441,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5687C2"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2465,7 +2465,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" manualMax="100" manualMin="-80" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup manualMax="100" manualMin="-80" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2489,7 +2489,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2514,7 +2514,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="2" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="2" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FFFF0000"/>
@@ -2538,7 +2538,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3492,7 +3492,7 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3516,7 +3516,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5687C2"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3540,7 +3540,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" manualMax="100" manualMin="-80" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup manualMax="100" manualMin="-80" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3564,7 +3564,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3589,7 +3589,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="2" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="2" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FFFF0000"/>
@@ -3613,7 +3613,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1342,7 +1342,7 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1366,7 +1366,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5687C2"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1390,7 +1390,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="100" manualMin="-80" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" manualMax="100" manualMin="-80" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1414,7 +1414,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1439,7 +1439,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="2" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="2" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FFFF0000"/>
@@ -1463,7 +1463,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="line" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1494,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2417,7 +2417,7 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2441,7 +2441,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5687C2"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2465,7 +2465,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="100" manualMin="-80" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" manualMax="100" manualMin="-80" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2489,7 +2489,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2514,7 +2514,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="2" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="2" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FFFF0000"/>
@@ -2538,7 +2538,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="column" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3492,7 +3492,7 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" first="1" last="1" negative="1" displayXAxis="0" displayHidden="0" minAxisType="group" maxAxisType="group" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3516,7 +3516,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="1" low="1" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5687C2"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3540,7 +3540,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="100" manualMin="-80" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" manualMax="100" manualMin="-80" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="1" high="0" low="0" first="0" last="0" negative="1" displayXAxis="0" displayHidden="0" minAxisType="custom" maxAxisType="custom" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3564,7 +3564,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="1" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF5F5F5F"/>
           <x14:colorNegative rgb="FFFFB620"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3589,7 +3589,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="2" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="2" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="0" last="0" negative="0" displayXAxis="1" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="1" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FFFF0000"/>
@@ -3613,7 +3613,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
+        <x14:sparklineGroup xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" lineWeight="0.75" type="stacked" dateAxis="0" displayEmptyCellsAs="span" markers="0" high="0" low="0" first="1" last="1" negative="0" displayXAxis="0" displayHidden="0" minAxisType="individual" maxAxisType="individual" rightToLeft="0" xr2:uid="{A98FF5F8-AE60-43B5-8001-AD89004F45D3}">
           <x14:colorSeries rgb="FFC6EFCE"/>
           <x14:colorNegative rgb="FFFFC7CE"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
@@ -489,7 +489,6 @@
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="0"/>
       <x:c r="C2" s="0">
         <x:v>3</x:v>
       </x:c>
@@ -535,7 +534,6 @@
     </x:row>
     <x:row r="3" spans="1:16">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="0"/>
       <x:c r="C3" s="0">
         <x:v>4</x:v>
       </x:c>
@@ -581,7 +579,6 @@
     </x:row>
     <x:row r="4" spans="1:16">
       <x:c r="A4" s="1"/>
-      <x:c r="B4" s="0"/>
       <x:c r="C4" s="0">
         <x:v>6</x:v>
       </x:c>
@@ -629,7 +626,6 @@
       <x:c r="A5" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B5" s="0"/>
       <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
@@ -675,7 +671,6 @@
     </x:row>
     <x:row r="6" spans="1:16">
       <x:c r="A6" s="1"/>
-      <x:c r="B6" s="0"/>
       <x:c r="C6" s="0">
         <x:v>8</x:v>
       </x:c>
@@ -721,7 +716,6 @@
     </x:row>
     <x:row r="7" spans="1:16">
       <x:c r="A7" s="1"/>
-      <x:c r="B7" s="0"/>
       <x:c r="C7" s="0">
         <x:v>10</x:v>
       </x:c>
@@ -769,7 +763,6 @@
       <x:c r="A8" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B8" s="0"/>
       <x:c r="C8" s="0">
         <x:v>11</x:v>
       </x:c>
@@ -815,7 +808,6 @@
     </x:row>
     <x:row r="9" spans="1:16">
       <x:c r="A9" s="1"/>
-      <x:c r="B9" s="0"/>
       <x:c r="C9" s="0">
         <x:v>13</x:v>
       </x:c>
@@ -861,7 +853,6 @@
     </x:row>
     <x:row r="10" spans="1:16">
       <x:c r="A10" s="1"/>
-      <x:c r="B10" s="0"/>
       <x:c r="C10" s="0">
         <x:v>14</x:v>
       </x:c>
@@ -909,7 +900,6 @@
       <x:c r="A11" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B11" s="0"/>
       <x:c r="C11" s="0">
         <x:v>16</x:v>
       </x:c>
@@ -955,7 +945,6 @@
     </x:row>
     <x:row r="12" spans="1:16">
       <x:c r="A12" s="1"/>
-      <x:c r="B12" s="0"/>
       <x:c r="C12" s="0">
         <x:v>17</x:v>
       </x:c>
@@ -1001,7 +990,6 @@
     </x:row>
     <x:row r="13" spans="1:16">
       <x:c r="A13" s="1"/>
-      <x:c r="B13" s="0"/>
       <x:c r="C13" s="0">
         <x:v>18</x:v>
       </x:c>
@@ -1049,7 +1037,6 @@
       <x:c r="A14" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B14" s="0"/>
       <x:c r="C14" s="0">
         <x:v>20</x:v>
       </x:c>
@@ -1095,7 +1082,6 @@
     </x:row>
     <x:row r="15" spans="1:16">
       <x:c r="A15" s="1"/>
-      <x:c r="B15" s="0"/>
       <x:c r="C15" s="0">
         <x:v>21</x:v>
       </x:c>
@@ -1141,7 +1127,6 @@
     </x:row>
     <x:row r="16" spans="1:16">
       <x:c r="A16" s="1"/>
-      <x:c r="B16" s="0"/>
       <x:c r="C16" s="0">
         <x:v>23</x:v>
       </x:c>
@@ -1189,7 +1174,6 @@
       <x:c r="A17" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B17" s="0"/>
       <x:c r="C17" s="0">
         <x:v>24</x:v>
       </x:c>
@@ -1235,7 +1219,6 @@
     </x:row>
     <x:row r="18" spans="1:16">
       <x:c r="A18" s="1"/>
-      <x:c r="B18" s="0"/>
       <x:c r="C18" s="0">
         <x:v>25</x:v>
       </x:c>
@@ -1281,7 +1264,6 @@
     </x:row>
     <x:row r="19" spans="1:16">
       <x:c r="A19" s="1"/>
-      <x:c r="B19" s="0"/>
       <x:c r="C19" s="0">
         <x:v>27</x:v>
       </x:c>
@@ -1509,7 +1491,6 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16">
-      <x:c r="A1" s="1"/>
       <x:c r="C1" s="2">
         <x:v>42391</x:v>
       </x:c>
@@ -1557,7 +1538,6 @@
       <x:c r="A2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="0"/>
       <x:c r="C2" s="0">
         <x:v>3</x:v>
       </x:c>
@@ -1603,7 +1583,6 @@
     </x:row>
     <x:row r="3" spans="1:16">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="0"/>
       <x:c r="C3" s="0">
         <x:v>4</x:v>
       </x:c>
@@ -1649,7 +1628,6 @@
     </x:row>
     <x:row r="4" spans="1:16">
       <x:c r="A4" s="1"/>
-      <x:c r="B4" s="0"/>
       <x:c r="C4" s="0">
         <x:v>6</x:v>
       </x:c>
@@ -1697,7 +1675,6 @@
       <x:c r="A5" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="0"/>
       <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
@@ -1743,7 +1720,6 @@
     </x:row>
     <x:row r="6" spans="1:16">
       <x:c r="A6" s="1"/>
-      <x:c r="B6" s="0"/>
       <x:c r="C6" s="0">
         <x:v>8</x:v>
       </x:c>
@@ -1789,7 +1765,6 @@
     </x:row>
     <x:row r="7" spans="1:16">
       <x:c r="A7" s="1"/>
-      <x:c r="B7" s="0"/>
       <x:c r="C7" s="0">
         <x:v>10</x:v>
       </x:c>
@@ -1837,7 +1812,6 @@
       <x:c r="A8" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" s="0"/>
       <x:c r="C8" s="0">
         <x:v>11</x:v>
       </x:c>
@@ -1883,7 +1857,6 @@
     </x:row>
     <x:row r="9" spans="1:16">
       <x:c r="A9" s="1"/>
-      <x:c r="B9" s="0"/>
       <x:c r="C9" s="0">
         <x:v>13</x:v>
       </x:c>
@@ -1929,7 +1902,6 @@
     </x:row>
     <x:row r="10" spans="1:16">
       <x:c r="A10" s="1"/>
-      <x:c r="B10" s="0"/>
       <x:c r="C10" s="0">
         <x:v>14</x:v>
       </x:c>
@@ -1977,7 +1949,6 @@
       <x:c r="A11" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="0"/>
       <x:c r="C11" s="0">
         <x:v>16</x:v>
       </x:c>
@@ -2023,7 +1994,6 @@
     </x:row>
     <x:row r="12" spans="1:16">
       <x:c r="A12" s="1"/>
-      <x:c r="B12" s="0"/>
       <x:c r="C12" s="0">
         <x:v>17</x:v>
       </x:c>
@@ -2069,7 +2039,6 @@
     </x:row>
     <x:row r="13" spans="1:16">
       <x:c r="A13" s="1"/>
-      <x:c r="B13" s="0"/>
       <x:c r="C13" s="0">
         <x:v>18</x:v>
       </x:c>
@@ -2117,7 +2086,6 @@
       <x:c r="A14" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B14" s="0"/>
       <x:c r="C14" s="0">
         <x:v>20</x:v>
       </x:c>
@@ -2163,7 +2131,6 @@
     </x:row>
     <x:row r="15" spans="1:16">
       <x:c r="A15" s="1"/>
-      <x:c r="B15" s="0"/>
       <x:c r="C15" s="0">
         <x:v>21</x:v>
       </x:c>
@@ -2209,7 +2176,6 @@
     </x:row>
     <x:row r="16" spans="1:16">
       <x:c r="A16" s="1"/>
-      <x:c r="B16" s="0"/>
       <x:c r="C16" s="0">
         <x:v>23</x:v>
       </x:c>
@@ -2257,7 +2223,6 @@
       <x:c r="A17" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B17" s="0"/>
       <x:c r="C17" s="0">
         <x:v>24</x:v>
       </x:c>
@@ -2303,7 +2268,6 @@
     </x:row>
     <x:row r="18" spans="1:16">
       <x:c r="A18" s="1"/>
-      <x:c r="B18" s="0"/>
       <x:c r="C18" s="0">
         <x:v>25</x:v>
       </x:c>
@@ -2349,7 +2313,6 @@
     </x:row>
     <x:row r="19" spans="1:16">
       <x:c r="A19" s="1"/>
-      <x:c r="B19" s="0"/>
       <x:c r="C19" s="0">
         <x:v>27</x:v>
       </x:c>
@@ -2584,7 +2547,6 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16">
-      <x:c r="A1" s="1"/>
       <x:c r="C1" s="2">
         <x:v>42391</x:v>
       </x:c>
@@ -2632,7 +2594,6 @@
       <x:c r="A2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B2" s="0"/>
       <x:c r="C2" s="0">
         <x:v>3</x:v>
       </x:c>
@@ -2678,7 +2639,6 @@
     </x:row>
     <x:row r="3" spans="1:16">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="0"/>
       <x:c r="C3" s="0">
         <x:v>4</x:v>
       </x:c>
@@ -2724,7 +2684,6 @@
     </x:row>
     <x:row r="4" spans="1:16">
       <x:c r="A4" s="1"/>
-      <x:c r="B4" s="0"/>
       <x:c r="C4" s="0">
         <x:v>6</x:v>
       </x:c>
@@ -2772,7 +2731,6 @@
       <x:c r="A5" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B5" s="0"/>
       <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
@@ -2818,7 +2776,6 @@
     </x:row>
     <x:row r="6" spans="1:16">
       <x:c r="A6" s="1"/>
-      <x:c r="B6" s="0"/>
       <x:c r="C6" s="0">
         <x:v>8</x:v>
       </x:c>
@@ -2864,7 +2821,6 @@
     </x:row>
     <x:row r="7" spans="1:16">
       <x:c r="A7" s="1"/>
-      <x:c r="B7" s="0"/>
       <x:c r="C7" s="0">
         <x:v>10</x:v>
       </x:c>
@@ -2912,7 +2868,6 @@
       <x:c r="A8" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B8" s="0"/>
       <x:c r="C8" s="0">
         <x:v>11</x:v>
       </x:c>
@@ -2958,7 +2913,6 @@
     </x:row>
     <x:row r="9" spans="1:16">
       <x:c r="A9" s="1"/>
-      <x:c r="B9" s="0"/>
       <x:c r="C9" s="0">
         <x:v>13</x:v>
       </x:c>
@@ -3004,7 +2958,6 @@
     </x:row>
     <x:row r="10" spans="1:16">
       <x:c r="A10" s="1"/>
-      <x:c r="B10" s="0"/>
       <x:c r="C10" s="0">
         <x:v>14</x:v>
       </x:c>
@@ -3052,7 +3005,6 @@
       <x:c r="A11" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B11" s="0"/>
       <x:c r="C11" s="0">
         <x:v>16</x:v>
       </x:c>
@@ -3098,7 +3050,6 @@
     </x:row>
     <x:row r="12" spans="1:16">
       <x:c r="A12" s="1"/>
-      <x:c r="B12" s="0"/>
       <x:c r="C12" s="0">
         <x:v>17</x:v>
       </x:c>
@@ -3144,7 +3095,6 @@
     </x:row>
     <x:row r="13" spans="1:16">
       <x:c r="A13" s="1"/>
-      <x:c r="B13" s="0"/>
       <x:c r="C13" s="0">
         <x:v>18</x:v>
       </x:c>
@@ -3192,7 +3142,6 @@
       <x:c r="A14" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B14" s="0"/>
       <x:c r="C14" s="0">
         <x:v>20</x:v>
       </x:c>
@@ -3238,7 +3187,6 @@
     </x:row>
     <x:row r="15" spans="1:16">
       <x:c r="A15" s="1"/>
-      <x:c r="B15" s="0"/>
       <x:c r="C15" s="0">
         <x:v>21</x:v>
       </x:c>
@@ -3284,7 +3232,6 @@
     </x:row>
     <x:row r="16" spans="1:16">
       <x:c r="A16" s="1"/>
-      <x:c r="B16" s="0"/>
       <x:c r="C16" s="0">
         <x:v>23</x:v>
       </x:c>
@@ -3332,7 +3279,6 @@
       <x:c r="A17" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B17" s="0"/>
       <x:c r="C17" s="0">
         <x:v>24</x:v>
       </x:c>
@@ -3378,7 +3324,6 @@
     </x:row>
     <x:row r="18" spans="1:16">
       <x:c r="A18" s="1"/>
-      <x:c r="B18" s="0"/>
       <x:c r="C18" s="0">
         <x:v>25</x:v>
       </x:c>
@@ -3424,7 +3369,6 @@
     </x:row>
     <x:row r="19" spans="1:16">
       <x:c r="A19" s="1"/>
-      <x:c r="B19" s="0"/>
       <x:c r="C19" s="0">
         <x:v>27</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Linear, Colorful 1, All markers, SameForAll scale</x:t>
   </x:si>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Sparklines/SampleSparklines.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Linear" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Column" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Stacked" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Linear" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Column" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Stacked" sheetId="3" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
